--- a/DataPreparation/Variables_description.xlsx
+++ b/DataPreparation/Variables_description.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FC6473-FAC4-453A-A872-35643D32FDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA788C-8F35-48CB-8A28-C4725247D0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="temp" localSheetId="1">Sheet2!$A$1:$G$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -24,8 +28,26 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{ABE62468-DF9D-4CBD-B893-D72C098D6DFC}" name="temp" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="D:\Minh Anh\Thông tin\temp.txt">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="370">
   <si>
     <t>TABLE</t>
   </si>
@@ -649,9 +671,6 @@
     <t>POS_M20_CNT_INSTALMENT_FUTURE_{}</t>
   </si>
   <si>
-    <t>POS_M20_POS_M20_IS_DPD_{}</t>
-  </si>
-  <si>
     <t>POS_M20_POS_IS_DPD_UNDER_120_{}</t>
   </si>
   <si>
@@ -996,17 +1015,168 @@
   </si>
   <si>
     <t>Maximum credit amount of the loan ratio of the credit amount requested by the client on the prior application in one year</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>DATA SOURCE</t>
+  </si>
+  <si>
+    <t>Viet</t>
+  </si>
+  <si>
+    <t>MEAN(EXT_SOURCE_1, EXT_SOURCE_2, EXT_SOURCE_3)</t>
+  </si>
+  <si>
+    <t>APPLICATION_TRAIN|TEST</t>
+  </si>
+  <si>
+    <t>EXT_SOURCE_3</t>
+  </si>
+  <si>
+    <t>Normalized score from external data source</t>
+  </si>
+  <si>
+    <t>APPS_GOODS_CREDIT_RATIO</t>
+  </si>
+  <si>
+    <t>AMT_GOODS_PRICE / AMT_CREDIT</t>
+  </si>
+  <si>
+    <t>Goods price ratio of credit loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sá»‘ tiá»n mua sáº£n pháº©m chia cho tá»•ng sá»‘ ná»£ credit </t>
+  </si>
+  <si>
+    <t>CARD_M3BALANCE_LIMIT_RATIO_MAX</t>
+  </si>
+  <si>
+    <t>AMT_BALANCE/AMT_CREDIT_LIMIT_ACTUAL( ~ balance this month / credit limit during this month )</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD_BALANCE</t>
+  </si>
+  <si>
+    <t>EXT_SOURCE_2</t>
+  </si>
+  <si>
+    <t>AMT_ANNUITY/AMT_CREDIT</t>
+  </si>
+  <si>
+    <t>loan annuity ratio of loan credit amount</t>
+  </si>
+  <si>
+    <t>sá»‘ tiá»n tráº£ gÃ³p má»—i thÃ¡ng chia cho tá»•ng sá»‘ loan</t>
+  </si>
+  <si>
+    <t>INS_D365SK_DPD_MAX</t>
+  </si>
+  <si>
+    <t>Maximum day past due during 365 days</t>
+  </si>
+  <si>
+    <t>INSTALLMENTS_PAYMENT</t>
+  </si>
+  <si>
+    <t>Sá»‘ ngÃ y quÃ¡ háº¡n tráº£ ná»£ lá»›n nháº¥t trong 1 nÄƒm</t>
+  </si>
+  <si>
+    <t>Ratio of refused application if a current application</t>
+  </si>
+  <si>
+    <t>PREVIOUS_APPLICATION</t>
+  </si>
+  <si>
+    <t>Tá»· lá»‡ bá»‹ tá»« chá»‘i cho vay</t>
+  </si>
+  <si>
+    <t>BUREAU_BUREAU_CREDIT_DEBT_RATIO_MAX</t>
+  </si>
+  <si>
+    <t>AMT_CREDIT_SUM_DEBT/AMT_CREDIT_SUM</t>
+  </si>
+  <si>
+    <t>Maximum current debt ratio of current credit amount</t>
+  </si>
+  <si>
+    <t>BUREAU</t>
+  </si>
+  <si>
+    <t>Tá»· lá»‡ lá»›n nháº¥t cá»§a ná»£ trÃªn sá»‘ tiá»n cho vay</t>
+  </si>
+  <si>
+    <t>EXT_SOURCE_1</t>
+  </si>
+  <si>
+    <t>DAYS_BIRTH</t>
+  </si>
+  <si>
+    <t>Client's age in days at the time of application</t>
+  </si>
+  <si>
+    <t>AMT_INCOME_TOTAL / DAYS_EMPLOYED</t>
+  </si>
+  <si>
+    <t>Income per day</t>
+  </si>
+  <si>
+    <t>thu nháº­p trung bÃ¬nh tÃ­nh theo ngÃ y</t>
+  </si>
+  <si>
+    <t>CODE_GENDER</t>
+  </si>
+  <si>
+    <t>Gender of the client</t>
+  </si>
+  <si>
+    <t>BUREAU_ACT_BUREAU_CREDIT_DEBT_RATIO_MAX_y</t>
+  </si>
+  <si>
+    <t>Maximum current debt ratio of current credit amount ( customer whom current application's day less than 750 )</t>
+  </si>
+  <si>
+    <t>Tá»· lá»‡ lá»›n nháº¥t cá»§a ná»£ trÃªn sá»‘ tiá»n cho vay ( vá»›i nhá»¯ng khÃ¡ch hÃ ng cÃ³ ngÃ y má»Ÿ tháº» trong vÃ²ng 750- 2 nÄƒm ngÃ y trá»Ÿ láº¡i Ä‘Ã¢y )</t>
+  </si>
+  <si>
+    <t>NAME_EDUCATION_TYPE</t>
+  </si>
+  <si>
+    <t>Level of highest education the client achieved</t>
+  </si>
+  <si>
+    <t>POS_M20_POS_IS_DPD_{}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,17 +1220,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,6 +1255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="temp" connectionId="1" xr16:uid="{4D77FF42-9E54-436D-893D-0A186D90E1BB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,11 +1459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I996"/>
+  <dimension ref="A1:I997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1406,14 +1581,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+      <c r="D8" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1421,10 +1596,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,38 +1607,38 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
+      <c r="D12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1471,10 +1646,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1482,38 +1657,38 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1521,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1532,10 +1707,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1554,29 +1729,29 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>46</v>
@@ -1587,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>46</v>
@@ -1598,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,35 +1784,35 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" s="1">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1645,18 +1820,18 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -1667,18 +1842,18 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>59</v>
@@ -1689,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>59</v>
@@ -1700,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
@@ -1711,10 +1886,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,21 +1897,21 @@
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="6">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,10 +1919,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1755,10 +1930,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,10 +1941,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,88 +1955,88 @@
         <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="4">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>41</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1">
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>59</v>
@@ -1872,7 +2047,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>59</v>
@@ -1883,7 +2058,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>59</v>
@@ -1894,43 +2069,43 @@
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>51</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>316</v>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1938,16 +2113,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,10 +2124,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,10 +2141,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1977,171 +2152,171 @@
         <v>55</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="6">
+        <v>56</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="1">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="1" t="s">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="4">
-        <v>57</v>
-      </c>
-      <c r="D58" s="4" t="s">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F59" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4">
-        <v>58</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="1">
-        <v>57</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="1">
-        <v>58</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="1">
+        <v>62</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="4">
-        <v>60</v>
-      </c>
-      <c r="D63" s="1" t="s">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="6">
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="1">
-        <v>61</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="1">
-        <v>64</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="1">
-        <v>65</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>114</v>
@@ -2149,21 +2324,21 @@
     </row>
     <row r="70" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="1">
-        <v>68</v>
+      <c r="C71" s="6">
+        <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>114</v>
@@ -2171,32 +2346,32 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="4">
-        <v>70</v>
+      <c r="C73" s="1">
+        <v>72</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>120</v>
@@ -2204,10 +2379,10 @@
     </row>
     <row r="75" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>120</v>
@@ -2215,10 +2390,10 @@
     </row>
     <row r="76" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>120</v>
@@ -2226,21 +2401,21 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="6">
+        <v>77</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="1">
-        <v>75</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>114</v>
@@ -2248,10 +2423,10 @@
     </row>
     <row r="79" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>114</v>
@@ -2259,10 +2434,10 @@
     </row>
     <row r="80" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>114</v>
@@ -2270,10 +2445,10 @@
     </row>
     <row r="81" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>114</v>
@@ -2281,60 +2456,60 @@
     </row>
     <row r="82" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="4">
-        <v>80</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C84" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="6">
+        <v>84</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="1">
-        <v>82</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="1">
-        <v>83</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>114</v>
@@ -2342,10 +2517,10 @@
     </row>
     <row r="87" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>114</v>
@@ -2353,10 +2528,10 @@
     </row>
     <row r="88" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>114</v>
@@ -2364,10 +2539,10 @@
     </row>
     <row r="89" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>114</v>
@@ -2375,43 +2550,43 @@
     </row>
     <row r="90" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="1">
-        <v>89</v>
+      <c r="C92" s="6">
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="4">
-        <v>90</v>
+      <c r="C93" s="1">
+        <v>92</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>120</v>
@@ -2419,21 +2594,21 @@
     </row>
     <row r="94" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>114</v>
@@ -2441,10 +2616,10 @@
     </row>
     <row r="96" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>114</v>
@@ -2452,88 +2627,88 @@
     </row>
     <row r="97" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F98" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="1">
-        <v>96</v>
+      <c r="C99" s="6">
+        <v>98</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C101" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="4">
-        <v>100</v>
+      <c r="B103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="1">
+        <v>102</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>114</v>
@@ -2541,10 +2716,10 @@
     </row>
     <row r="104" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>114</v>
@@ -2552,32 +2727,32 @@
     </row>
     <row r="105" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="1">
-        <v>103</v>
+      <c r="C106" s="6">
+        <v>105</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>120</v>
@@ -2585,10 +2760,10 @@
     </row>
     <row r="108" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>120</v>
@@ -2596,10 +2771,10 @@
     </row>
     <row r="109" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>120</v>
@@ -2607,21 +2782,21 @@
     </row>
     <row r="110" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>114</v>
@@ -2629,232 +2804,232 @@
     </row>
     <row r="112" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="4">
-        <v>110</v>
+      <c r="C113" s="6">
+        <v>112</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F114" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C117" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="1">
+        <v>117</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="1">
-        <v>115</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C119" s="1">
+        <v>118</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="1">
-        <v>116</v>
-      </c>
-      <c r="D119" s="1" t="s">
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="6">
+        <v>119</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="1">
-        <v>117</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1">
+        <v>121</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="1">
-        <v>119</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C123" s="1">
+        <v>122</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="4">
-        <v>120</v>
-      </c>
-      <c r="D123" s="1" t="s">
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="1">
+        <v>123</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C124" s="1">
-        <v>121</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C125" s="1">
+        <v>124</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="1">
-        <v>122</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="6">
+        <v>126</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="1">
-        <v>124</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>195</v>
@@ -2862,10 +3037,10 @@
     </row>
     <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
-        <v>128</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>195</v>
@@ -2873,32 +3048,32 @@
     </row>
     <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="1">
+        <v>132</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="4">
-        <v>130</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="1">
-        <v>131</v>
+      <c r="C134" s="6">
+        <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>130</v>
@@ -2906,27 +3081,24 @@
     </row>
     <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>202</v>
@@ -2934,13 +3106,13 @@
     </row>
     <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>202</v>
@@ -2948,10 +3120,10 @@
     </row>
     <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>195</v>
@@ -2962,10 +3134,10 @@
     </row>
     <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>195</v>
@@ -2976,24 +3148,24 @@
     </row>
     <row r="140" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="1">
-        <v>138</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>208</v>
+      <c r="C141" s="6">
+        <v>140</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>130</v>
@@ -3004,10 +3176,10 @@
     </row>
     <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>130</v>
@@ -3017,128 +3189,131 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="1">
+        <v>142</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C144" s="1">
+        <v>143</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C143" s="4">
-        <v>140</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="1">
-        <v>141</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="145" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H145" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="146" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="1">
-        <v>144</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>220</v>
+        <v>146</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="6">
+        <v>147</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="1">
-        <v>145</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="149" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>57</v>
+        <v>220</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="153" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="4">
-        <v>150</v>
+      <c r="C153" s="1">
+        <v>152</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>72</v>
@@ -3146,763 +3321,773 @@
     </row>
     <row r="154" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="155" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="1">
-        <v>152</v>
+      <c r="C155" s="6">
+        <v>154</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="160" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>238</v>
+        <v>130</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="G161" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="6">
+        <v>161</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="4">
-        <v>160</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>305</v>
+        <v>231</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="1">
-        <v>167</v>
+      <c r="C169" s="6">
+        <v>168</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>130</v>
+        <v>233</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="C172" s="1">
+        <v>171</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C173" s="1">
+        <v>172</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C172" s="4">
-        <v>170</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E173" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>219</v>
+        <v>253</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="6">
+        <v>175</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>57</v>
+        <v>258</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="1">
+        <v>181</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="6">
+        <v>182</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="4">
-        <v>180</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="1">
-        <v>181</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="6">
+        <v>189</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="1">
-        <v>188</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="191" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="1">
+        <v>191</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="4">
-        <v>190</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="193" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G196" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="6">
+        <v>196</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="197" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="1">
-        <v>195</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="199" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="4">
-        <v>200</v>
+      <c r="C202" s="1">
+        <v>201</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="1">
-        <v>202</v>
+      <c r="C204" s="6">
+        <v>203</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
     </row>
     <row r="208" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D210" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="6">
+        <v>210</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="1">
+        <v>211</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="211" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="1">
-        <v>209</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="212" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G212" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="213" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4687,6 +4872,7 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="H1:I1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
@@ -4696,4 +4882,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B61FC8-73A1-4B21-9341-0AA25D5F5342}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>417323.49280000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3">
+        <v>34179.706059999997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4">
+        <v>27273.730510000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>523</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5">
+        <v>25270.19167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6">
+        <v>20197.420409999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>19843.220669999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8">
+        <v>19358.609789999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9">
+        <v>18223.068569999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10">
+        <v>16910.87946</v>
+      </c>
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11">
+        <v>16073.572700000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12">
+        <v>15736.15516</v>
+      </c>
+      <c r="E12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13">
+        <v>15008.4144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14">
+        <v>13999.04286</v>
+      </c>
+      <c r="E14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15">
+        <v>13299.578149999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16">
+        <v>12594.66468</v>
+      </c>
+      <c r="E16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>